--- a/03-BOM/BOM_Circuit.xlsx
+++ b/03-BOM/BOM_Circuit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pos_software\EGR304raj.github.io\docs\03-BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EGR304raj.github.io\docs\03-BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{365A1861-F506-4286-95ED-FBAD455A4148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C15BB49C-8FF0-43B5-B028-09D4B5717561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
   <si>
     <t>Part Name/Description</t>
   </si>
@@ -207,6 +207,15 @@
   </si>
   <si>
     <t>https://www.ti.com/lit/ds/symlink/lm7800.pdf</t>
+  </si>
+  <si>
+    <t>LDR</t>
+  </si>
+  <si>
+    <t>MCP6004</t>
+  </si>
+  <si>
+    <t>R6</t>
   </si>
 </sst>
 </file>
@@ -589,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1041,6 +1050,34 @@
         <v>36</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{6170BFA0-8056-4A78-BC4E-ABBD13539894}"/>
